--- a/biology/Botanique/Michel_Desvigne/Michel_Desvigne.xlsx
+++ b/biology/Botanique/Michel_Desvigne/Michel_Desvigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Desvigne est un paysagiste français né à Montbéliard le 24 janvier 1958. Il a réalisé de nombreux aménagements de jardins et espaces publics, et transposé des « systèmes de parcs » américains sur de grands territoires européens, contribuant ainsi à la requalification des périphéries des villes sous forme de « lisières » épaisses, paysages intermédiaires propices à l'interaction entre le monde agricole et le périurbain. Il reçoit le grand prix de l'urbanisme en 2011[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Desvigne est un paysagiste français né à Montbéliard le 24 janvier 1958. Il a réalisé de nombreux aménagements de jardins et espaces publics, et transposé des « systèmes de parcs » américains sur de grands territoires européens, contribuant ainsi à la requalification des périphéries des villes sous forme de « lisières » épaisses, paysages intermédiaires propices à l'interaction entre le monde agricole et le périurbain. Il reçoit le grand prix de l'urbanisme en 2011.
 </t>
         </is>
       </c>
@@ -513,58 +525,173 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">De l'école de paysage à la villa Medicis
-Michel Desvigne obtient un diplôme de botanique et de géologie à l'université Lyon-II en 1979. Il intègre ensuite l’École nationale supérieure du paysage de Versailles où il suit l’enseignement de Michel Corajoud[1]. Il obtient son diplôme de paysagiste DPLG en 1984.
-Lauréat en 1986 du concours de l'Académie de France à Rome section architecture, Michel Desvigne est le premier paysagiste à intégrer la Villa Médicis dont il est pensionnaire entre 1986 et 1988. Il y produit les « Jardins élémentaires ». Certains de ses dessins seront intégrés en 2013 aux collections du Centre Georges-Pompidou[2]. Une aide du FIACRE (le fonds d'incitation à la création d'entreprise français du ministère de la Culture) lui permet à son retour de poursuivre ses recherches.
-Premières réalisations
-En 1989, Renzo Piano lui confie le jardin de son opération de la rue de Meaux à Paris. Remarqué, ce « square des Bouleaux » composé de 110 bouleaux, à l’intérieur de l’étroite cour de l’ensemble de logements sociaux, réalisé en 1990, le lance[3]. Suivent de nombreux projets : plusieurs espaces publics à Lyon (dont le Jardin Caille et la place des Célestins 1990-1994), l’entrée de ville de Montpellier (1993), les abords des gares du TGV Méditerranée (avec Jean-Marie Duthilleul, 1992-2002), le plan-paysage d’Issoudun.
+          <t>De l'école de paysage à la villa Medicis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Desvigne obtient un diplôme de botanique et de géologie à l'université Lyon-II en 1979. Il intègre ensuite l’École nationale supérieure du paysage de Versailles où il suit l’enseignement de Michel Corajoud. Il obtient son diplôme de paysagiste DPLG en 1984.
+Lauréat en 1986 du concours de l'Académie de France à Rome section architecture, Michel Desvigne est le premier paysagiste à intégrer la Villa Médicis dont il est pensionnaire entre 1986 et 1988. Il y produit les « Jardins élémentaires ». Certains de ses dessins seront intégrés en 2013 aux collections du Centre Georges-Pompidou. Une aide du FIACRE (le fonds d'incitation à la création d'entreprise français du ministère de la Culture) lui permet à son retour de poursuivre ses recherches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Premières réalisations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, Renzo Piano lui confie le jardin de son opération de la rue de Meaux à Paris. Remarqué, ce « square des Bouleaux » composé de 110 bouleaux, à l’intérieur de l’étroite cour de l’ensemble de logements sociaux, réalisé en 1990, le lance. Suivent de nombreux projets : plusieurs espaces publics à Lyon (dont le Jardin Caille et la place des Célestins 1990-1994), l’entrée de ville de Montpellier (1993), les abords des gares du TGV Méditerranée (avec Jean-Marie Duthilleul, 1992-2002), le plan-paysage d’Issoudun.
 De 1983 à 1986, Michel Desvigne mène divers projets et réalisations, seul ou en collaboration avec les paysagistes Christine Dalnoky, Michel Corajoud et Alexandre Chemetoff. 
-Projets d'envergure et reconnaissance
-En 2000, Michel Desvigne reçoit la médaille de l’Académie d'architecture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Projets d'envergure et reconnaissance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, Michel Desvigne reçoit la médaille de l’Académie d'architecture.
 Il est nommé chevalier des Arts et des Lettres en 2003.  
 Appelé par des architectes de renom, Michel Desvigne réalise de nombreux projets à l’étranger parmi lesquels on peut citer : le parc de la péninsule de Greenwich à Londres (avec Richard Rogers, 1997-2000), les espaces extérieurs et jardins du Dallas Center for the Performing Arts (avec Foster + Partners et OMA Rem Koolhaas, 2004-2009), le parc Dräi Eechelen à Luxembourg (avec Ieoh Ming Pei, 1999-2008), la place centrale d’Almere aux Pays-Bas (avec Rem Koolhaas, 2000-2005), la réinterprétation d’un jardin de Noguchi pour l'université Keiō de Tokyo (avec Kengo Kuma 2004-2005).
 Il mène de front ces projets avec plusieurs études à grande échelle, comme le développement de Bordeaux Rive droite (2000-2004), la transformation d’une vallée industrielle, la Lower Lea Valley, à Londres (avec Herzog &amp; de Meuron, 2004), un plan de développement urbain et paysager à Burgos, en Espagne (avec Herzog &amp; de Meuron, 2006-2011), la trame paysagère du projet Lyon Confluence 2.
-Michel Desvigne obtient en 2011 le Grand Prix de l’Urbanisme pour sa constante contribution à la réflexion sur la ville et le territoire[4].
-Simultanément à de nombreuses collaborations avec des architectes et urbanistes, mondialement connus ou débutants, Michel Desvigne est aussi parfois leur mandataire pour des projets d’envergure tels que le cluster Paris-Saclay (7 700 ha et 30 km de long[1], 2010-2021), Euralens et la chaîne de parcs du bassin minier (2010-2016), ou le Vieux-Port de Marseille (2012-2016).
-Parmi ses réalisations récentes on compte des projets d’échelles et de natures (programmes) variés : le jardin de préfiguration de l’Ile Seguin avec l'architecte Inessa Hansch (2010), jardin des étangs Gobert de Versailles avec l'architecte Inessa Hansch (2013), la place centrale de Lyon Confluence (2014), le parvis du stade de Bordeaux avec Herzog &amp; De Meuron (2015), le nouveau parvis du campus de Jussieu (2015), l'aménagement des espaces publics de la presqu’île de Caen avec l'architecte Inessa Hansch (2016), le Parc aux Angéliques de Bordeaux (2017)[5] pour lequel il salue le courage des décisionnaires publics, ayant accepté de consacrer plusieurs dizaines d'hectares constructibles à la réalisation d'un parc[1].
-Enseignement et conseils d'administration
-Parallèlement à son exercice de concepteur, Michel Desvigne s’est toujours gardé du temps pour enseigner. Il enseigne régulièrement dans plusieurs universités d’architecture à travers le monde : ENSP (Versailles, France), EPFL (Lausanne, Suisse), UCL (Louvain, Belgique), AA School of Architecture (Londres, Royaume-Uni), Accademia di architettura (Mendrisio, Suisse).
-Il enseigne le projet à la Harvard Graduate School of Design avec l'architecte Inessa Hansch[6].
+Michel Desvigne obtient en 2011 le Grand Prix de l’Urbanisme pour sa constante contribution à la réflexion sur la ville et le territoire.
+Simultanément à de nombreuses collaborations avec des architectes et urbanistes, mondialement connus ou débutants, Michel Desvigne est aussi parfois leur mandataire pour des projets d’envergure tels que le cluster Paris-Saclay (7 700 ha et 30 km de long, 2010-2021), Euralens et la chaîne de parcs du bassin minier (2010-2016), ou le Vieux-Port de Marseille (2012-2016).
+Parmi ses réalisations récentes on compte des projets d’échelles et de natures (programmes) variés : le jardin de préfiguration de l’Ile Seguin avec l'architecte Inessa Hansch (2010), jardin des étangs Gobert de Versailles avec l'architecte Inessa Hansch (2013), la place centrale de Lyon Confluence (2014), le parvis du stade de Bordeaux avec Herzog &amp; De Meuron (2015), le nouveau parvis du campus de Jussieu (2015), l'aménagement des espaces publics de la presqu’île de Caen avec l'architecte Inessa Hansch (2016), le Parc aux Angéliques de Bordeaux (2017) pour lequel il salue le courage des décisionnaires publics, ayant accepté de consacrer plusieurs dizaines d'hectares constructibles à la réalisation d'un parc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Enseignement et conseils d'administration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement à son exercice de concepteur, Michel Desvigne s’est toujours gardé du temps pour enseigner. Il enseigne régulièrement dans plusieurs universités d’architecture à travers le monde : ENSP (Versailles, France), EPFL (Lausanne, Suisse), UCL (Louvain, Belgique), AA School of Architecture (Londres, Royaume-Uni), Accademia di architettura (Mendrisio, Suisse).
+Il enseigne le projet à la Harvard Graduate School of Design avec l'architecte Inessa Hansch.
 Michel Desvigne préside depuis 2008 le conseil d’administration de l’École nationale supérieure du paysage (ENSP) située à Versailles.
 Il est membre du CA de la commission nationale française pour l’UNESCO depuis 2013.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Michel_Desvigne</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Projets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Réalisations
-2012-2017, il est mandataire pour l'opération du Parc aux Angéliques de Bordeaux, avec l'architecte Inessa Hansch. Le parc se réalise au fur et à mesure de la libération des parcelles[1].
-2012-2016, il crée la surprise en revitalisant l'espace public du Vieux Port de Marseille[1], en tant que mandataire et avec Norman Foster.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2012-2017, il est mandataire pour l'opération du Parc aux Angéliques de Bordeaux, avec l'architecte Inessa Hansch. Le parc se réalise au fur et à mesure de la libération des parcelles.
+2012-2016, il crée la surprise en revitalisant l'espace public du Vieux Port de Marseille, en tant que mandataire et avec Norman Foster.
 2013-2016 : Espace publics de la Presqu’île de Caen, en tant que mandataire et avec l'architecte Inessa Hansch’ien
 2013-2016 : Ensemble de logements Castagnola à Lugano en Suisse, avec Herzog &amp; de Meuron
 2010-2016 : Euralens centralité, en tant que mandataire, avec Christian de Portzemparc et l'architecte Inessa Hansch
@@ -645,8 +772,43 @@
 1990-1992 : Jardin Caille de Lyon, en collaboration
 1989-1992 : Square des Bouleaux à Paris, avec Renzo Piano
 Les projets menés entre 1989 et 2002 font l'objet d'une collaboration avec la paysagiste Christine Dalnoky.
-Projets en cours
-2017-en cours : Bordeaux Merignac Soleil, avec Rem Koolhaas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Projets</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Projets en cours</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2017-en cours : Bordeaux Merignac Soleil, avec Rem Koolhaas
 2017-en cours : Musée d'Art moderne et contemporain de Beyrouth
 2017-en cours : Parc Girodet à Bourg-lès-Valence
 2016-en cours : Detroit Est Riverfront dans le Michigan aux États-Unis, avec les architectes SOM
@@ -689,9 +851,43 @@
 2006-en cours : Alésia Museo Park à Alise-Sainte-Reine avec Bernard Tschumi
 2005-en cours : Quartier Monges Croix sud à Cornebarrieu, avec Bruno Fortier
 2005-en cours : Quais Vieille Lisses à Courtrai en Belgique, en tant que mandataire
-2003-en cours : quartier Nouveau Saint Roch à Montpellier, avec Alexandre Chemetoff
-Études urbaines
-2017 : Sette Belissimi Broli à Milan en Italie, avec Cino Zucchi Architetti
+2003-en cours : quartier Nouveau Saint Roch à Montpellier, avec Alexandre Chemetoff</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Projets</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Études urbaines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2017 : Sette Belissimi Broli à Milan en Italie, avec Cino Zucchi Architetti
 2016 : Manoël Island masterplan à Malte, avec Norman Foster
 2011-2016 : paris Seine Est, avec Finn Geipel
 2014-2016 : Seine Park 2, avec Jean-Louis Subileau et l’architecte Inessa Hansch
@@ -757,31 +953,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Michel_Desvigne</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Principales expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Design after design, XXIe triennale de Milan, Pirelli HangarBicocca, Milan, 2 avril - 12 septembre 2016. 
 Michel Desvigne, Centre Georges Pompidou, Paris, exposition 2014
@@ -813,31 +1011,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Michel_Desvigne</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Prix City&amp;Brand Landscape : paysage iconique. Triennale de Milan, Italie.
 Prix « Les Défis Urbains » 2016, pour le projet des Marches de Saint-Pierre, Toulouse, France.
@@ -852,61 +1052,65 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Michel_Desvigne</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres, 2003</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Michel_Desvigne</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Desvigne</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Enseignement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 2014, il enseigne à l’université Harvard aux États-Unis.
 De 2006 à 2012, il est professeur permanent à l'Accademia di Architettura di Mendrisio en Suisse.
